--- a/medicine/Mort/Cimetière_ancien_de_Neuilly-sur-Seine/Cimetière_ancien_de_Neuilly-sur-Seine.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_Neuilly-sur-Seine/Cimetière_ancien_de_Neuilly-sur-Seine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Neuilly-sur-Seine</t>
+          <t>Cimetière_ancien_de_Neuilly-sur-Seine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière ancien de Neuilly se trouve à Neuilly-sur-Seine dans les Hauts-de-Seine. Il est situé 3 rue Victor-Noir. C'est le premier des deux cimetières de Neuilly, le second (le cimetière nouveau) se trouvant dans la commune de Nanterre, bien qu'appartenant à celle de Neuilly.
 Il est ouvert du 2 novembre au 15 mars de 8 heures à 17 heures 30 et du 16 mars au 1er novembre de 8 heures à 18 heures.
-Les funérailles de Victor Noir  y furent organisées en janvier 1870, en présence d'une foule immense (en 1891, la dépouille est transférée au cimetière du Père-Lachaise)[1].
+Les funérailles de Victor Noir  y furent organisées en janvier 1870, en présence d'une foule immense (en 1891, la dépouille est transférée au cimetière du Père-Lachaise).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Neuilly-sur-Seine</t>
+          <t>Cimetière_ancien_de_Neuilly-sur-Seine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de la rue des Poissonniers est créé en 1786. Saturé, il est envisagé de le déplacer dès la Révolution. En 1808, un nouveau site est retenu, grâce à un échange de terrains avec le maréchal Murat, propriétaire du château de Villiers. Au fil du XIXe siècle, le cimetière est progressivement agrandi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de la rue des Poissonniers est créé en 1786. Saturé, il est envisagé de le déplacer dès la Révolution. En 1808, un nouveau site est retenu, grâce à un échange de terrains avec le maréchal Murat, propriétaire du château de Villiers. Au fil du XIXe siècle, le cimetière est progressivement agrandi.
 Il s'appelle « cimetière ancien » depuis l'ouverture du nouveau cimetière de Neuilly, entre Nanterre et Puteaux, en 1886.
-En 1905, la municipalité décide la construction d'un monument aux morts de la guerre franco-allemande de 1870, projet remporté par le statuaire Raoul Verlet et l'architecte Achille Colle[2].
-Ce petit cimetière comprend des sépultures avec des sculptures, médaillons et bustes remarquables de la fin du XIXe siècle et du début du XXe siècle, dont certaines sont des monuments protégés. Le cimetière ancien[3] et plusieurs de ses sépultures[4] ont été recensés par l'inventaire général du patrimoine culturel.
+En 1905, la municipalité décide la construction d'un monument aux morts de la guerre franco-allemande de 1870, projet remporté par le statuaire Raoul Verlet et l'architecte Achille Colle.
+Ce petit cimetière comprend des sépultures avec des sculptures, médaillons et bustes remarquables de la fin du XIXe siècle et du début du XXe siècle, dont certaines sont des monuments protégés. Le cimetière ancien et plusieurs de ses sépultures ont été recensés par l'inventaire général du patrimoine culturel.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Neuilly-sur-Seine</t>
+          <t>Cimetière_ancien_de_Neuilly-sur-Seine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Narcisse Ancelle (1801-1888), notaire et homme politique, maire de Neuilly-sur-Seine de 1851 à 1868, protecteur de Charles Baudelaire
 Paul Armont, né Petrococchino (1874-1943), dramaturge et scénariste
@@ -612,7 +628,7 @@
 Jane Rhodes (1929-2011), cantatrice
 Maurice Rouvier (1842-1911), président du conseil sous la IIIe République
 Apollonie Sabatier née Joséphine-Aglaé Savatier (1822-1889), peintre, demi-mondaine et salonnière
-Comtesse Irène Sampieri, née Cahen d'Anvers (1872-1963)[5]
+Comtesse Irène Sampieri, née Cahen d'Anvers (1872-1963)
 Eugène Schueller (1881-1957), fondateur de la société L'Oréal
 Michel Serrault (1928-2007), acteur, précédemment inhumé au cimetière Sainte-Catherine d'Honfleur. Il repose au cimetière ancien de Neuilly depuis 2009 aux côtés de son épouse Juanita (décédée en 2008) et de leur fille Caroline (décédée en 1977)
 Boris Souvarine, né Lifschitz (1895-1984), dirigeant communiste
